--- a/DATA_goal/Junction_Flooding_490.xlsx
+++ b/DATA_goal/Junction_Flooding_490.xlsx
@@ -443,35 +443,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>44821.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="J2" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44821.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.89</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.33</v>
+        <v>23.32</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.95</v>
+        <v>19.46</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.6</v>
+        <v>25.96</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.84</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.79</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>12.37</v>
+        <v>123.75</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.33</v>
+        <v>23.35</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.49</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.66</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.03</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.26</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.07</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.39</v>
+        <v>23.87</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44821.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.94</v>
+        <v>19.38</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.17</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.76</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.76</v>
+        <v>27.61</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.27</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.59</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.11</v>
+        <v>101.12</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.63</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.72</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.77</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.42</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.35</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.58</v>
+        <v>25.79</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44821.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.66</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.94</v>
+        <v>19.41</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.18</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.68</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.15</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.62</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.2</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>6.12</v>
+        <v>61.15</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.42</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.19</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.83</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.82</v>
+        <v>18.17</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_490.xlsx
+++ b/DATA_goal/Junction_Flooding_490.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44821.54861111111</v>
+        <v>45171.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.6</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.57</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.13</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.7</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.59</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.67</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.93</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.31</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.57</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.84</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.09</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.06</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.78</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.14</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.63</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.17</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.64</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.74</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.28</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.13</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.42</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.47</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.21</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.48</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.62</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44821.55555555555</v>
+        <v>45171.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.89</v>
+        <v>23.968</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.19</v>
+        <v>17.405</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.41</v>
+        <v>2.03</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>23.32</v>
+        <v>52.423</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>19.46</v>
+        <v>41.972</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.09</v>
+        <v>18.744</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>25.96</v>
+        <v>70.51300000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.87</v>
+        <v>29.086</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.6</v>
+        <v>12.717</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.94</v>
+        <v>18.715</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>20.86</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.84</v>
+        <v>22.106</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.73</v>
+        <v>6.038</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>18.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.79</v>
+        <v>26.594</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.74</v>
+        <v>16.059</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.528</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.45</v>
+        <v>1.248</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>123.75</v>
+        <v>278.816</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>23.35</v>
+        <v>52.546</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>17.351</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>16.49</v>
+        <v>35.016</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>18.321</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.14</v>
+        <v>3.09</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.66</v>
+        <v>34.931</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.03</v>
+        <v>15.326</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.07</v>
+        <v>13.686</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.26</v>
+        <v>16.132</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.07</v>
+        <v>21.641</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.34</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>23.87</v>
+        <v>64.446</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.79</v>
+        <v>9.625999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44821.5625</v>
+        <v>45171.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9</v>
+        <v>10.04</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.77</v>
+        <v>7.173</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.33</v>
+        <v>1.096</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>19.38</v>
+        <v>22.099</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.17</v>
+        <v>17.318</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.76</v>
+        <v>7.811</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.61</v>
+        <v>34.781</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.34</v>
+        <v>12.216</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.4</v>
+        <v>5.283</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.41</v>
+        <v>7.627</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.96</v>
+        <v>8.763999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>9.321999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.28</v>
+        <v>2.539</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.27</v>
+        <v>7.895</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>11.128</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.59</v>
+        <v>6.904</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.951</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.624</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.12</v>
+        <v>112.87</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.63</v>
+        <v>22.235</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.72</v>
+        <v>7.288</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.77</v>
+        <v>14.666</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.42</v>
+        <v>7.631</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.454</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.79</v>
+        <v>16.383</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.82</v>
+        <v>6.437</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.05</v>
+        <v>5.828</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.03</v>
+        <v>6.859</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.35</v>
+        <v>9.006</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25.79</v>
+        <v>32.019</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.94</v>
+        <v>3.965</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>9.112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44821.56944444445</v>
+        <v>45171.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.66</v>
+        <v>7.64</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.26</v>
+        <v>5.48</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.19</v>
+        <v>16.85</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>10.19</v>
+        <v>13.2</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.21</v>
+        <v>5.94</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.41</v>
+        <v>25.24</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.18</v>
+        <v>9.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.48</v>
+        <v>4.02</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.68</v>
+        <v>5.8</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.03</v>
+        <v>6.69</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.15</v>
+        <v>7.13</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.44</v>
+        <v>1.93</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.62</v>
+        <v>6.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.2</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.47</v>
+        <v>5.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.46</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>61.15</v>
+        <v>84.23</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>12.42</v>
+        <v>16.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.27</v>
+        <v>5.55</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>11.13</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.72</v>
+        <v>5.81</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.59</v>
+        <v>1.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>11.93</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.68</v>
+        <v>4.9</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.19</v>
+        <v>4.45</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.83</v>
+        <v>5.23</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.27</v>
+        <v>6.87</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.17</v>
+        <v>23.07</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.52</v>
+        <v>3.02</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.06</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44821.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>19.38</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.52</v>
+        <v>6.94</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_490.xlsx
+++ b/DATA_goal/Junction_Flooding_490.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45171.50694444445</v>
+        <v>44821.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.835</v>
+        <v>0.596</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.791</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.698</v>
+        <v>0.131</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.243</v>
+        <v>0.703</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>24.166</v>
+        <v>0.594</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.51</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.958</v>
+        <v>0.673</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.033</v>
+        <v>2.927</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.29</v>
+        <v>1.311</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.735</v>
+        <v>0.574</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.533</v>
+        <v>0.838</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.25</v>
+        <v>0.092</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.739</v>
+        <v>0.061</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.655</v>
+        <v>0.781</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.06</v>
+        <v>0.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.282</v>
+        <v>0.143</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.096</v>
+        <v>2.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.74</v>
+        <v>0.626</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>170.025</v>
+        <v>2.165</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>32.298</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.758</v>
+        <v>0.638</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.812</v>
+        <v>1.735</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.713</v>
+        <v>2.278</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.837</v>
+        <v>0.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.288</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>0.467</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.641999999999999</v>
+        <v>0.214</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.303</v>
+        <v>0.476</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.679</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.311</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>31.418</v>
+        <v>2.624</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.68</v>
+        <v>0.591</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.449</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45171.51388888889</v>
+        <v>44821.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.968</v>
+        <v>10.887</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.405</v>
+        <v>8.192</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.03</v>
+        <v>0.407</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>52.423</v>
+        <v>23.32</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>41.972</v>
+        <v>19.464</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.744</v>
+        <v>8.087</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>70.51300000000001</v>
+        <v>25.959</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.086</v>
+        <v>13.869</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.717</v>
+        <v>6.596</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.715</v>
+        <v>8.945</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.86</v>
+        <v>9.638999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>22.106</v>
+        <v>9.842000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.038</v>
+        <v>2.732</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.798</v>
+        <v>8.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.594</v>
+        <v>11.79</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>16.059</v>
+        <v>6.74</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.528</v>
+        <v>1.238</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.248</v>
+        <v>0.447</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>278.816</v>
+        <v>123.748</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>52.546</v>
+        <v>23.346</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.351</v>
+        <v>8.113</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.016</v>
+        <v>16.495</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.321</v>
+        <v>9.119</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.09</v>
+        <v>1.138</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>34.931</v>
+        <v>13.665</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.326</v>
+        <v>7.033</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.686</v>
+        <v>6.066</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.132</v>
+        <v>7.262</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.641</v>
+        <v>10.071</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.246</v>
+        <v>0.343</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>64.446</v>
+        <v>23.868</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.625999999999999</v>
+        <v>4.786</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.693</v>
+        <v>9.702999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45171.52083333334</v>
+        <v>44821.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.04</v>
+        <v>9.003</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.173</v>
+        <v>6.772</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.096</v>
+        <v>0.325</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>22.099</v>
+        <v>19.379</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.318</v>
+        <v>16.166</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.811</v>
+        <v>6.76</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>34.781</v>
+        <v>27.613</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.216</v>
+        <v>11.335</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.283</v>
+        <v>5.402</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.627</v>
+        <v>7.406</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.763999999999999</v>
+        <v>7.964</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.321999999999999</v>
+        <v>8.196</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.539</v>
+        <v>2.277</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.895</v>
+        <v>7.273</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.128</v>
+        <v>9.864000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.904</v>
+        <v>5.591</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.951</v>
+        <v>0.864</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.624</v>
+        <v>0.294</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>112.87</v>
+        <v>101.12</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.235</v>
+        <v>19.629</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.288</v>
+        <v>6.715</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.666</v>
+        <v>13.77</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.631</v>
+        <v>7.422</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.454</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.383</v>
+        <v>13.786</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.437</v>
+        <v>5.818</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.828</v>
+        <v>5.047</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.859</v>
+        <v>6.029</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.006</v>
+        <v>8.348000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0.223</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>32.019</v>
+        <v>25.787</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.965</v>
+        <v>3.939</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.112</v>
+        <v>8.048999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45171.52777777778</v>
+        <v>44821.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.64</v>
+        <v>5.661</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.48</v>
+        <v>4.259</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.205</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.85</v>
+        <v>12.185</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.2</v>
+        <v>10.187</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.94</v>
+        <v>4.215</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25.24</v>
+        <v>19.406</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.31</v>
+        <v>7.179</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.02</v>
+        <v>3.48</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.8</v>
+        <v>4.68</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.69</v>
+        <v>5.03</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.13</v>
+        <v>5.151</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.93</v>
+        <v>1.442</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.02</v>
+        <v>4.621</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>6.197</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.27</v>
+        <v>3.475</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.651</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.161</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.23</v>
+        <v>61.153</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.88</v>
+        <v>12.418</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.55</v>
+        <v>4.27</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.13</v>
+        <v>8.782999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.81</v>
+        <v>4.717</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.11</v>
+        <v>0.592</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.93</v>
+        <v>9.391999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.9</v>
+        <v>3.675</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.45</v>
+        <v>3.189</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.23</v>
+        <v>3.825</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.87</v>
+        <v>5.275</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.166</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.07</v>
+        <v>18.17</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.02</v>
+        <v>2.517</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.94</v>
+        <v>5.057</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44821.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.52</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_490.xlsx
+++ b/DATA_goal/Junction_Flooding_490.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44821.54861111111</v>
+        <v>45171.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.596</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5659999999999999</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.131</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.703</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.594</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.673</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.927</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.311</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.574</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.838</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.092</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.061</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.781</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.143</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.626</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.165</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.638</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.735</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.278</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.128</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.419</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.467</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.214</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.476</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.624</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.591</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.381</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44821.55555555555</v>
+        <v>45171.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.887</v>
+        <v>23.968</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.192</v>
+        <v>17.405</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.407</v>
+        <v>2.03</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>23.32</v>
+        <v>52.423</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>19.464</v>
+        <v>41.972</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.087</v>
+        <v>18.744</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>25.959</v>
+        <v>70.51300000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.869</v>
+        <v>29.086</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.596</v>
+        <v>12.717</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.945</v>
+        <v>18.715</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.638999999999999</v>
+        <v>20.86</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.842000000000001</v>
+        <v>22.106</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.732</v>
+        <v>6.038</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.798</v>
+        <v>18.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.79</v>
+        <v>26.594</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.74</v>
+        <v>16.059</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.238</v>
+        <v>1.528</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.447</v>
+        <v>1.248</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>123.748</v>
+        <v>278.816</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>23.346</v>
+        <v>52.546</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.113</v>
+        <v>17.351</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>16.495</v>
+        <v>35.016</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.119</v>
+        <v>18.321</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.138</v>
+        <v>3.09</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.665</v>
+        <v>34.931</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.033</v>
+        <v>15.326</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.066</v>
+        <v>13.686</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.262</v>
+        <v>16.132</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.071</v>
+        <v>21.641</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.343</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>23.868</v>
+        <v>64.446</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.786</v>
+        <v>9.625999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.702999999999999</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44821.5625</v>
+        <v>45171.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.003</v>
+        <v>10.04</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.772</v>
+        <v>7.173</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.325</v>
+        <v>1.096</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>19.379</v>
+        <v>22.099</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.166</v>
+        <v>17.318</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.76</v>
+        <v>7.811</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.613</v>
+        <v>34.781</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.335</v>
+        <v>12.216</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.402</v>
+        <v>5.283</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.406</v>
+        <v>7.627</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.964</v>
+        <v>8.763999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.196</v>
+        <v>9.321999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.277</v>
+        <v>2.539</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.273</v>
+        <v>7.895</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.864000000000001</v>
+        <v>11.128</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.591</v>
+        <v>6.904</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.864</v>
+        <v>0.951</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.294</v>
+        <v>0.624</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.12</v>
+        <v>112.87</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.629</v>
+        <v>22.235</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.715</v>
+        <v>7.288</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.77</v>
+        <v>14.666</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.422</v>
+        <v>7.631</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.9389999999999999</v>
+        <v>1.454</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.786</v>
+        <v>16.383</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.818</v>
+        <v>6.437</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.047</v>
+        <v>5.828</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.029</v>
+        <v>6.859</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.348000000000001</v>
+        <v>9.006</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.223</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25.787</v>
+        <v>32.019</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.939</v>
+        <v>3.965</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.048999999999999</v>
+        <v>9.112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44821.56944444445</v>
+        <v>45171.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.661</v>
+        <v>7.64</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.259</v>
+        <v>5.48</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.205</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.185</v>
+        <v>16.85</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>10.187</v>
+        <v>13.2</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.215</v>
+        <v>5.94</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.406</v>
+        <v>25.24</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.179</v>
+        <v>9.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.48</v>
+        <v>4.02</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.68</v>
+        <v>5.8</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.03</v>
+        <v>6.69</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.151</v>
+        <v>7.13</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.442</v>
+        <v>1.93</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.621</v>
+        <v>6.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.197</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.475</v>
+        <v>5.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.651</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.161</v>
+        <v>0.46</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>61.153</v>
+        <v>84.23</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>12.418</v>
+        <v>16.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.27</v>
+        <v>5.55</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>8.782999999999999</v>
+        <v>11.13</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.717</v>
+        <v>5.81</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.592</v>
+        <v>1.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.391999999999999</v>
+        <v>11.93</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.675</v>
+        <v>4.9</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.189</v>
+        <v>4.45</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.825</v>
+        <v>5.23</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.275</v>
+        <v>6.87</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.166</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.17</v>
+        <v>23.07</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.517</v>
+        <v>3.02</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.057</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44821.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>19.38</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.52</v>
+        <v>6.94</v>
       </c>
     </row>
   </sheetData>
